--- a/donnees/listesAdherents/2025.xlsx
+++ b/donnees/listesAdherents/2025.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -78,11 +80,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -449,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,213 +460,196 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="16" customWidth="1" min="1" max="1"/>
-    <col width="25" customWidth="1" min="2" max="2"/>
+    <col width="25" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
     <col width="15" customWidth="1" min="3" max="3"/>
     <col width="15" customWidth="1" min="4" max="4"/>
-    <col width="15" customWidth="1" min="5" max="5"/>
-    <col width="5" customWidth="1" min="6" max="6"/>
-    <col width="20" customWidth="1" min="7" max="7"/>
-    <col width="8" customWidth="1" min="8" max="8"/>
-    <col width="25" customWidth="1" min="9" max="9"/>
-    <col width="10" customWidth="1" min="10" max="10"/>
-    <col width="25" customWidth="1" min="11" max="11"/>
-    <col width="15" customWidth="1" min="12" max="12"/>
+    <col width="5" customWidth="1" min="5" max="5"/>
+    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="25" customWidth="1" min="8" max="8"/>
+    <col width="10" customWidth="1" min="9" max="9"/>
+    <col width="25" customWidth="1" min="10" max="10"/>
+    <col width="15" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
     <col width="8" customWidth="1" min="13" max="13"/>
     <col width="8" customWidth="1" min="14" max="14"/>
     <col width="8" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="8" customWidth="1" min="17" max="17"/>
-    <col width="15" customWidth="1" min="18" max="18"/>
-    <col width="10" customWidth="1" min="19" max="19"/>
-    <col width="20" customWidth="1" min="20" max="20"/>
+    <col width="15" customWidth="1" min="17" max="17"/>
+    <col width="10" customWidth="1" min="18" max="18"/>
+    <col width="20" customWidth="1" min="19" max="19"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Enregistrement</t>
+          <t>Adresse mail</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Adresse mail</t>
+          <t>Nom</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Nom</t>
+          <t>Prenom</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Prenom</t>
+          <t>IDs reçus</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>IDs reçus</t>
+          <t>Statut</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Statut</t>
+          <t>Date dernière adhésion</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Date dernière adhésion</t>
+          <t>Envoi mails</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Envoi mails</t>
+          <t>Adresse</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Adresse</t>
+          <t>Code postal</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Code postal</t>
+          <t>Ville</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Ville</t>
+          <t>Téléphone</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Téléphone</t>
+          <t>Montant adhésion payé année n-1</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Montant adhésion payé année n-1</t>
+          <t>Montant adhésion année n</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Montant adhésion année n</t>
+          <t>Montant adhésion année n+1</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Montant adhésion année n+1</t>
+          <t>Montant dons année n</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>Montant dons année n</t>
+          <t>Total année n</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>Total année n</t>
+          <t>Dernier paiement</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>Dernier paiement</t>
+          <t>Dern. moy. paiement</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>Dern. moy. paiement</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Remarques</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>04/08/2024</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="A2" s="3" t="inlineStr">
         <is>
           <t>0ddd9@test.fr</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="B2" s="3" t="inlineStr">
         <is>
           <t>Lesage</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
+      <c r="C2" s="3" t="inlineStr">
         <is>
           <t>Henri</t>
         </is>
       </c>
-      <c r="E2" s="2" t="n"/>
-      <c r="F2" s="2" t="inlineStr">
+      <c r="D2" s="3" t="inlineStr"/>
+      <c r="E2" s="3" t="inlineStr">
         <is>
           <t>RA</t>
         </is>
       </c>
-      <c r="G2" s="2" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="H2" s="2" t="inlineStr">
-        <is>
-          <t>Oui</t>
-        </is>
-      </c>
-      <c r="I2" s="2" t="inlineStr">
+      <c r="G2" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>9 allée des lagomorphes</t>
         </is>
       </c>
-      <c r="J2" s="2" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>38600</t>
         </is>
       </c>
-      <c r="K2" s="2" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>Fontaine</t>
         </is>
       </c>
-      <c r="L2" s="2" t="n"/>
-      <c r="M2" s="2" t="n">
+      <c r="K2" s="3" t="inlineStr"/>
+      <c r="L2" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="N2" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="O2" s="2" t="n">
+      <c r="M2" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="P2" s="2" t="n">
+      <c r="N2" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="Q2" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="R2" s="2" t="inlineStr">
+      <c r="O2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>01/05/2025</t>
         </is>
       </c>
-      <c r="S2" s="2" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>helloAsso</t>
         </is>
       </c>
-      <c r="T2" s="2" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
+      <c r="S2" s="3" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/donnees/listesAdherents/2025.xlsx
+++ b/donnees/listesAdherents/2025.xlsx
@@ -586,7 +586,7 @@
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>Lesage</t>
+          <t>LESAGE</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
@@ -594,7 +594,11 @@
           <t>Henri</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr"/>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>250501HL0</t>
+        </is>
+      </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
           <t>RA</t>

--- a/donnees/listesAdherents/2025.xlsx
+++ b/donnees/listesAdherents/2025.xlsx
@@ -16,9 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -80,12 +78,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -579,81 +576,81 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>0ddd9@test.fr</t>
         </is>
       </c>
-      <c r="B2" s="3" t="inlineStr">
+      <c r="B2" s="2" t="inlineStr">
         <is>
           <t>LESAGE</t>
         </is>
       </c>
-      <c r="C2" s="3" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
         <is>
           <t>Henri</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
-        <is>
-          <t>250501HL0</t>
-        </is>
-      </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>250501HL1</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
         <is>
           <t>RA</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="F2" s="2" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="G2" s="3" t="b">
+      <c r="G2" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="H2" s="2" t="inlineStr">
         <is>
           <t>9 allée des lagomorphes</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="I2" s="2" t="inlineStr">
         <is>
           <t>38600</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="J2" s="2" t="inlineStr">
         <is>
           <t>Fontaine</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr"/>
-      <c r="L2" s="3" t="n">
+      <c r="K2" s="2" t="inlineStr"/>
+      <c r="L2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="M2" s="3" t="n">
+      <c r="M2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="N2" s="3" t="n">
+      <c r="N2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="O2" s="3" t="n">
+      <c r="O2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="P2" s="3" t="n">
+      <c r="P2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="Q2" s="3" t="inlineStr">
+      <c r="Q2" s="2" t="inlineStr">
         <is>
           <t>01/05/2025</t>
         </is>
       </c>
-      <c r="R2" s="3" t="inlineStr">
+      <c r="R2" s="2" t="inlineStr">
         <is>
           <t>helloAsso</t>
         </is>
       </c>
-      <c r="S2" s="3" t="n"/>
+      <c r="S2" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/donnees/listesAdherents/2025.xlsx
+++ b/donnees/listesAdherents/2025.xlsx
@@ -598,14 +598,10 @@
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>RA</t>
-        </is>
-      </c>
-      <c r="F2" s="2" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
-      </c>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="n"/>
       <c r="G2" s="2" t="b">
         <v>1</v>
       </c>
@@ -629,7 +625,7 @@
         <v>0</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N2" s="2" t="n">
         <v>0</v>
@@ -638,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q2" s="2" t="inlineStr">
         <is>

--- a/donnees/listesAdherents/2025.xlsx
+++ b/donnees/listesAdherents/2025.xlsx
@@ -449,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,22 +460,23 @@
     <col width="25" customWidth="1" min="1" max="1"/>
     <col width="15" customWidth="1" min="2" max="2"/>
     <col width="15" customWidth="1" min="3" max="3"/>
-    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="10" customWidth="1" min="4" max="4"/>
     <col width="5" customWidth="1" min="5" max="5"/>
-    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
     <col width="8" customWidth="1" min="7" max="7"/>
-    <col width="25" customWidth="1" min="8" max="8"/>
-    <col width="10" customWidth="1" min="9" max="9"/>
-    <col width="25" customWidth="1" min="10" max="10"/>
-    <col width="15" customWidth="1" min="11" max="11"/>
-    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="25" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="25" customWidth="1" min="11" max="11"/>
+    <col width="10" customWidth="1" min="12" max="12"/>
     <col width="8" customWidth="1" min="13" max="13"/>
     <col width="8" customWidth="1" min="14" max="14"/>
     <col width="8" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="15" customWidth="1" min="17" max="17"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
     <col width="10" customWidth="1" min="18" max="18"/>
-    <col width="20" customWidth="1" min="19" max="19"/>
+    <col width="10" customWidth="1" min="19" max="19"/>
+    <col width="20" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -491,7 +492,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Prenom</t>
+          <t>Prénom</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -506,70 +507,75 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Date dernière adhésion</t>
+          <t>Dern. adh.</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>Régulier</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>Envoi mails</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Adresse</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Code postal</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Ville</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Téléphone</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Montant adhésion payé année n-1</t>
-        </is>
-      </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Montant adhésion année n</t>
+          <t>Adh. 2024</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Montant adhésion année n+1</t>
+          <t>Adh. 2025</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Montant dons année n</t>
+          <t>Adh. 2026</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>Total année n</t>
+          <t>Dons 2025</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>Dernier paiement</t>
+          <t>Total 2025</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
+          <t>Dern. paiement</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
           <t>Dern. moy. paiement</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Remarques</t>
         </is>
@@ -603,50 +609,53 @@
       </c>
       <c r="F2" s="2" t="n"/>
       <c r="G2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="H2" s="2" t="inlineStr">
+      <c r="I2" s="2" t="inlineStr">
         <is>
           <t>9 allée des lagomorphes</t>
         </is>
       </c>
-      <c r="I2" s="2" t="inlineStr">
+      <c r="J2" s="2" t="inlineStr">
         <is>
           <t>38600</t>
         </is>
       </c>
-      <c r="J2" s="2" t="inlineStr">
+      <c r="K2" s="2" t="inlineStr">
         <is>
           <t>Fontaine</t>
         </is>
       </c>
-      <c r="K2" s="2" t="inlineStr"/>
-      <c r="L2" s="2" t="n">
+      <c r="L2" s="2" t="inlineStr"/>
+      <c r="M2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="M2" s="2" t="n">
+      <c r="N2" s="2" t="n">
         <v>10</v>
-      </c>
-      <c r="N2" s="2" t="n">
-        <v>0</v>
       </c>
       <c r="O2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="P2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="Q2" s="2" t="inlineStr">
+      <c r="R2" s="2" t="inlineStr">
         <is>
           <t>01/05/2025</t>
         </is>
       </c>
-      <c r="R2" s="2" t="inlineStr">
+      <c r="S2" s="2" t="inlineStr">
         <is>
           <t>helloAsso</t>
         </is>
       </c>
-      <c r="S2" s="2" t="n"/>
+      <c r="T2" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/donnees/listesAdherents/2025.xlsx
+++ b/donnees/listesAdherents/2025.xlsx
@@ -449,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,7 +473,7 @@
     <col width="8" customWidth="1" min="14" max="14"/>
     <col width="8" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="10" customWidth="1" min="17" max="17"/>
     <col width="10" customWidth="1" min="18" max="18"/>
     <col width="10" customWidth="1" min="19" max="19"/>
     <col width="20" customWidth="1" min="20" max="20"/>
@@ -604,10 +604,12 @@
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F2" s="2" t="n"/>
+          <t>RA</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>2024</v>
+      </c>
       <c r="G2" s="2" t="b">
         <v>0</v>
       </c>
@@ -656,6 +658,112 @@
         </is>
       </c>
       <c r="T2" s="2" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>Nombre de reçus</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2" t="n"/>
+      <c r="D4" s="2" t="n"/>
+      <c r="E4" s="2" t="n"/>
+      <c r="F4" s="2" t="n"/>
+      <c r="G4" s="2" t="n"/>
+      <c r="H4" s="2" t="n"/>
+      <c r="I4" s="2" t="n"/>
+      <c r="J4" s="2" t="n"/>
+      <c r="K4" s="2" t="n"/>
+      <c r="L4" s="2" t="n"/>
+      <c r="M4" s="2" t="n"/>
+      <c r="N4" s="2" t="n"/>
+      <c r="O4" s="2" t="n"/>
+      <c r="P4" s="2" t="n"/>
+      <c r="Q4" s="2" t="n"/>
+      <c r="R4" s="2" t="n"/>
+      <c r="S4" s="2" t="n"/>
+      <c r="T4" s="2" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>Total avec reçus</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2" t="n"/>
+      <c r="D5" s="2" t="n"/>
+      <c r="E5" s="2" t="n"/>
+      <c r="F5" s="2" t="n"/>
+      <c r="G5" s="2" t="n"/>
+      <c r="H5" s="2" t="n"/>
+      <c r="I5" s="2" t="n"/>
+      <c r="J5" s="2" t="n"/>
+      <c r="K5" s="2" t="n"/>
+      <c r="L5" s="2" t="n"/>
+      <c r="M5" s="2" t="n"/>
+      <c r="N5" s="2" t="n"/>
+      <c r="O5" s="2" t="n"/>
+      <c r="P5" s="2" t="n"/>
+      <c r="Q5" s="2" t="n"/>
+      <c r="R5" s="2" t="n"/>
+      <c r="S5" s="2" t="n"/>
+      <c r="T5" s="2" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>Total sans reçus</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="C6" s="2" t="n"/>
+      <c r="D6" s="2" t="n"/>
+      <c r="E6" s="2" t="n"/>
+      <c r="F6" s="2" t="n"/>
+      <c r="G6" s="2" t="n"/>
+      <c r="H6" s="2" t="n"/>
+      <c r="I6" s="2" t="n"/>
+      <c r="J6" s="2" t="n"/>
+      <c r="K6" s="2" t="n"/>
+      <c r="L6" s="2" t="n"/>
+      <c r="M6" s="2" t="n"/>
+      <c r="N6" s="2" t="n"/>
+      <c r="O6" s="2" t="n"/>
+      <c r="P6" s="2" t="n"/>
+      <c r="Q6" s="2" t="n"/>
+      <c r="R6" s="2" t="n"/>
+      <c r="S6" s="2" t="n"/>
+      <c r="T6" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/donnees/listesAdherents/2025.xlsx
+++ b/donnees/listesAdherents/2025.xlsx
@@ -603,11 +603,7 @@
           <t>Henri</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>250501HL1</t>
-        </is>
-      </c>
+      <c r="D2" s="2" t="inlineStr"/>
       <c r="E2" s="2" t="inlineStr">
         <is>
           <t>RA</t>
@@ -756,7 +752,7 @@
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C6" s="2" t="n"/>
       <c r="D6" s="2" t="n"/>
